--- a/Survey/Hackathon Survey Charts.xlsx
+++ b/Survey/Hackathon Survey Charts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\AIDOaRt-Hackathon-TOSEM\Survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C401F8-C8E3-43E5-B093-7DA288B8E966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B725DA-82E5-498D-B59D-F0D9ED6FE1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EEC08D3-36B9-496D-8728-6F95BAB368F9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="7" xr2:uid="{0EEC08D3-36B9-496D-8728-6F95BAB368F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Demography" sheetId="1" r:id="rId1"/>
@@ -4505,7 +4505,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4532,7 +4532,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -4936,6 +4935,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4943,7 +4943,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4974,6 +4973,1882 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$F$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Partecipation - Challenges'!$E$113:$E$119</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&gt;5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution Def'!$H$70:$H$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEDD-402D-821E-3357A6362B76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$F$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Researcher</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Partecipation - Challenges'!$E$113:$E$119</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&gt;5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution Def'!$H$101:$H$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19047619047619047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DEDD-402D-821E-3357A6362B76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-27"/>
+        <c:axId val="669480912"/>
+        <c:axId val="669482832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="669480912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669482832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669482832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669480912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77035596910089565"/>
+          <c:y val="0.15871281497367498"/>
+          <c:w val="0.18805657453055757"/>
+          <c:h val="0.21210584263448182"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$M$34:$M$39</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Affinity diagramming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Card sorting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Concept mapping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mind mapping</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Persona</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution Def'!$O$23:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3441-4D3B-A945-73656D5BFD7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$M$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Researcher</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$M$34:$M$39</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Affinity diagramming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Card sorting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Concept mapping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mind mapping</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Persona</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution Def'!$O$34:$O$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.13636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13636363636363635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3441-4D3B-A945-73656D5BFD7B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-27"/>
+        <c:axId val="816868816"/>
+        <c:axId val="816870736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="816868816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816870736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="816870736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816868816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77033002819092056"/>
+          <c:y val="0.1443737197520969"/>
+          <c:w val="0.17768380804251321"/>
+          <c:h val="0.21122060341259738"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$F$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Partecipation - Challenges'!$E$113:$E$119</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&gt;5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution Def'!$H$70:$H$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFE3-448B-A51D-9E5B2832E08B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$F$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Researcher</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Partecipation - Challenges'!$E$113:$E$119</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&gt;5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution Def'!$H$101:$H$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19047619047619047</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.7619047619047616E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFE3-448B-A51D-9E5B2832E08B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-27"/>
+        <c:axId val="669480912"/>
+        <c:axId val="669482832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="669480912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669482832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669482832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669480912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77035596910089565"/>
+          <c:y val="0.15871281497367498"/>
+          <c:w val="0.18805657453055757"/>
+          <c:h val="0.21210584263448182"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$M$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$M$34:$M$39</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Affinity diagramming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Card sorting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Concept mapping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mind mapping</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Persona</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution Def'!$O$23:$O$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9376-481E-9B4B-591851EF8D0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$M$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Researcher</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Participation - Solution Def'!$M$34:$M$39</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Affinity diagramming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Card sorting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Concept mapping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mind mapping</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Persona</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution Def'!$O$34:$O$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.13636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36363636363636365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13636363636363635</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9376-481E-9B4B-591851EF8D0F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-27"/>
+        <c:axId val="816868816"/>
+        <c:axId val="816870736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="816868816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816870736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="816870736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816868816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77033002819092056"/>
+          <c:y val="0.1443737197520969"/>
+          <c:w val="0.17768380804251321"/>
+          <c:h val="0.21122060341259738"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -5406,6 +7281,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5413,7 +7289,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5445,7 +7320,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -5879,6 +7754,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5886,7 +7762,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5918,7 +7793,958 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution dev'!$F$69</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Participation - Solution dev'!$F$70:$F$76</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&gt;5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution dev'!$H$70:$H$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-02A2-421B-9E0A-0449EBE50473}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution dev'!$F$100</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Researcher</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Participation - Solution dev'!$F$70:$F$76</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&gt;5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution dev'!$H$101:$H$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18181818181818182</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.0909090909090912E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13636363636363635</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5454545454545456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-02A2-421B-9E0A-0449EBE50473}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-27"/>
+        <c:axId val="669480912"/>
+        <c:axId val="669482832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="669480912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669482832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="669482832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="669480912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77035596910089565"/>
+          <c:y val="0.15871281497367498"/>
+          <c:w val="0.18805657453055757"/>
+          <c:h val="0.21210584263448182"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution dev'!$O$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Industry</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Participation - Solution dev'!$O$35:$O$41</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Brainstorming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Competitive testing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lo-fi &amp; Hi-fi prototyping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Minimum Viable Product (MVP)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SCAMPER</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storyboards</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Wizard of Oz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution dev'!$Q$22:$Q$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.34615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19230769230769232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23076923076923078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.11538461538461539</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F60-42EE-963A-F61272819D44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Participation - Solution dev'!$O$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Researcher</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Participation - Solution dev'!$O$35:$O$41</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Brainstorming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Competitive testing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lo-fi &amp; Hi-fi prototyping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Minimum Viable Product (MVP)</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SCAMPER</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Storyboards</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Wizard of Oz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Participation - Solution dev'!$Q$35:$Q$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.44117647058823528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8235294117647065E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8235294117647065E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29411764705882354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.8823529411764705E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9411764705882353E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F60-42EE-963A-F61272819D44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-27"/>
+        <c:axId val="816868816"/>
+        <c:axId val="816870736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="816868816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816870736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="816870736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="816868816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77033002819092056"/>
+          <c:y val="0.1443737197520969"/>
+          <c:w val="0.17768380804251321"/>
+          <c:h val="0.21122060341259738"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -6385,6 +9211,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6392,7 +9219,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6427,7 +9253,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -6922,6 +9748,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6929,7 +9756,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6961,7 +9787,330 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>areas!$A$1:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Microservice</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cloud Computing</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Others</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Internet of Things</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>DevOps</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Testing</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Cyber-physical System</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Model-driven Engineering</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>AI/ML</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>areas!$B$1:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C7E-4D18-867D-AA562D263057}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1516586703"/>
+        <c:axId val="1516590063"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1516586703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1516590063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1516590063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1516586703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -7456,6 +10605,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7463,7 +10613,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7495,7 +10644,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -7990,6 +11139,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7997,7 +11147,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8029,7 +11178,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -8094,7 +11243,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{17A3E9B8-1158-489D-9A6E-FE881475AD68}" type="CELLRANGE">
+                    <a:fld id="{B6C3B8BC-EF1C-4CA0-8653-98D8F694F9E1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8128,7 +11277,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{397260CF-DAE1-4DA5-BE4D-74B45EBF7473}" type="CELLRANGE">
+                    <a:fld id="{90D6875F-D5E8-487E-8541-36F9C555D266}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8162,7 +11311,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{58EE82CD-1419-498B-B65F-B3601F47548E}" type="CELLRANGE">
+                    <a:fld id="{1857D943-C720-418D-A9FA-6B379B5480A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8196,7 +11345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A4E16974-2CC2-4B6B-A538-55E313CEE836}" type="CELLRANGE">
+                    <a:fld id="{F89391CD-D3E5-4E80-926C-81C868DDF6C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8230,7 +11379,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF204BB3-C2FB-45F0-A53D-E4E44B0C4DE3}" type="CELLRANGE">
+                    <a:fld id="{34329149-C21C-46C9-B139-6E05E2D980FD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8264,7 +11413,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{00DB28A7-81B0-4B9A-903F-BAC4FE5650FD}" type="CELLRANGE">
+                    <a:fld id="{EDE2BC51-AF95-4E1F-9236-C384F1570579}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8298,7 +11447,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ED874484-659D-4027-8D5F-8C564C92E8EC}" type="CELLRANGE">
+                    <a:fld id="{77419E4D-C3D7-4C25-80D7-BB0F2D8E115E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8332,7 +11481,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0BBBD6BF-A5B3-4808-8B6C-7858BE5EEBA7}" type="CELLRANGE">
+                    <a:fld id="{1CF280C5-8ADE-418D-80DA-1D1698BB6E77}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8570,7 +11719,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D7AD4186-832C-4E65-8470-DCC959E55216}" type="CELLRANGE">
+                    <a:fld id="{6E96FBCE-F977-4D5E-A191-5AE45BF3FDD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8604,7 +11753,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{72C9CC82-3126-4A12-9C6E-0AC82723782C}" type="CELLRANGE">
+                    <a:fld id="{C77CDA7C-B9A2-4B77-87A7-27494755D92D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8638,7 +11787,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA7B1659-1498-40B7-8CF3-2ECD1EDD2560}" type="CELLRANGE">
+                    <a:fld id="{E157C115-F7F1-45FC-AEAE-154A78470092}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8672,7 +11821,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1AB62A73-F598-4AC6-8F85-43B5033E6056}" type="CELLRANGE">
+                    <a:fld id="{E4A539ED-C014-4662-8BDF-F91F00358DC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8706,7 +11855,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC78CF70-5AB9-40E3-A191-8DAC2EFB7687}" type="CELLRANGE">
+                    <a:fld id="{3BB6B248-0F6E-4AA1-B826-79CEF3BA6E42}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8740,7 +11889,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{50F98047-BC31-431C-ACB3-A671C2F3C712}" type="CELLRANGE">
+                    <a:fld id="{8F04A9F8-A6C4-474A-9FEF-E31BD0CE22C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8774,7 +11923,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5081BBD1-2090-475D-B8BF-A703E3103B1E}" type="CELLRANGE">
+                    <a:fld id="{0666BA9D-9343-4F99-932F-0C5DB5000945}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -8808,7 +11957,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B87F398E-BAE0-42E3-8031-C160C508CF0A}" type="CELLRANGE">
+                    <a:fld id="{981265EB-5CFC-4B1B-B604-17A96AF86375}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[INTERVALLOCELLE]</a:t>
@@ -9199,6 +12348,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9206,7 +12356,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9245,7 +12394,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -9620,6 +12769,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9627,7 +12777,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9639,329 +12788,6 @@
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="percentage"/>
-            <c:noEndCap val="0"/>
-            <c:val val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>areas!$A$1:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>Microservice</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cloud Computing</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Others</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Internet of Things</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>DevOps</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Testing</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Cyber-physical System</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Model-driven Engineering</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>AI/ML</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>areas!$B$1:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>22</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4C7E-4D18-867D-AA562D263057}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1516586703"/>
-        <c:axId val="1516590063"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1516586703"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1516590063"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1516590063"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1516586703"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -11051,6 +13877,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11058,7 +13885,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11615,6 +14441,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11622,7 +14449,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11883,6 +14709,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11890,7 +14717,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12358,6 +15184,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -12365,7 +15192,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12819,6 +15645,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -12826,7 +15653,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12865,10 +15691,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -12884,7 +15710,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Participation - Solution Def'!$F$69</c:f>
+              <c:f>'Partecipation - Challenges'!$E$81</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12895,7 +15721,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -12955,37 +15783,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Participation - Solution Def'!$H$70:$H$76</c:f>
+              <c:f>'Partecipation - Challenges'!$G$82:$G$88</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.25E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.25E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DEDD-402D-821E-3357A6362B76}"/>
+              <c16:uniqueId val="{00000000-CE7C-4147-B7A4-B4129BA3679F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12994,7 +15822,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Participation - Solution Def'!$F$100</c:f>
+              <c:f>'Partecipation - Challenges'!$E$112</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13005,7 +15833,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -13065,37 +15895,37 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Participation - Solution Def'!$H$101:$H$107</c:f>
+              <c:f>'Partecipation - Challenges'!$G$113:$G$119</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.18181818181818182</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.19047619047619047</c:v>
+                  <c:v>0.13636363636363635</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14285714285714285</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.7619047619047616E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DEDD-402D-821E-3357A6362B76}"/>
+              <c16:uniqueId val="{00000001-CE7C-4147-B7A4-B4129BA3679F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13291,6 +16121,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13298,7 +16129,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13337,10 +16167,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -13356,7 +16186,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Participation - Solution Def'!$M$22</c:f>
+              <c:f>'Partecipation - Challenges'!$K$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -13367,109 +16197,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="percentage"/>
-            <c:noEndCap val="0"/>
-            <c:val val="5"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Participation - Solution Def'!$M$34:$M$39</c:f>
-              <c:strCache>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>Affinity diagramming</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Card sorting</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Concept mapping</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Mind mapping</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Persona</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Other</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Participation - Solution Def'!$O$23:$O$28</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.5555555555555552E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16666666666666666</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3441-4D3B-A945-73656D5BFD7B}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Participation - Solution Def'!$M$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Researcher</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:solidFill>
@@ -13500,60 +16230,166 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'Participation - Solution Def'!$M$34:$M$39</c:f>
+              <c:f>'Partecipation - Challenges'!$K$22:$K$27</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Affinity diagramming</c:v>
+                  <c:v>Brainstorming</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Card sorting</c:v>
+                  <c:v>Brainwriting</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Concept mapping</c:v>
+                  <c:v>Empathy map</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Mind mapping</c:v>
+                  <c:v>Exploratory</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Persona</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Other</c:v>
+                  <c:v>Scenarios</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Participation - Solution Def'!$O$34:$O$39</c:f>
+              <c:f>'Partecipation - Challenges'!$M$11:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.13636363636363635</c:v>
+                  <c:v>0.42307692307692307</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.23076923076923078</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.36363636363636365</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31818181818181818</c:v>
+                  <c:v>3.8461538461538464E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5454545454545456E-2</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13636363636363635</c:v>
+                  <c:v>0.23076923076923078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3441-4D3B-A945-73656D5BFD7B}"/>
+              <c16:uniqueId val="{00000000-C10A-45DD-BB76-8A40999539C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Partecipation - Challenges'!$K$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Researcher</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Partecipation - Challenges'!$K$22:$K$27</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Brainstorming</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Brainwriting</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Empathy map</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Exploratory</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Persona</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scenarios</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Partecipation - Challenges'!$M$22:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C10A-45DD-BB76-8A40999539C4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13752,6 +16588,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -13759,7 +16596,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -13912,81 +16748,55 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -14072,6 +16882,60 @@
 </file>
 
 <file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors18.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14111,7 +16975,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14152,6 +17016,166 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors21.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors22.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -14392,81 +17416,55 @@
 </file>
 
 <file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
@@ -15981,7 +18979,7 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -16185,6 +19183,3024 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style18.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -16485,7 +22501,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style19.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16990,8 +23006,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -17195,6 +23211,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style20.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -17495,7 +24014,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style21.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18000,7 +24519,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style22.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18505,7 +25024,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style23.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18978,509 +25497,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -23309,6 +29325,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55E3432A-614B-4A15-A767-F55522596C56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>81915</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A44E47A7-9AE1-4617-8891-280853EF0C53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23390,6 +29482,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>55245</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{952D3946-2A9D-4004-8F11-22D549180EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>36195</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13E4714E-A5DB-4E3C-BBB7-8AE976D30096}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23466,6 +29634,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>230505</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66520D34-B798-4288-9552-B704230CF00A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>253365</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F96E3808-7B9D-4E87-9C30-A707B4ED1D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -24028,8 +30272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507AA729-00F6-4C5F-BAF7-288CD3FFDDEA}">
   <dimension ref="A1:N81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24096,7 +30340,7 @@
       <c r="A2" t="s">
         <v>865</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>1276</v>
       </c>
       <c r="C2" t="s">
@@ -24390,7 +30634,7 @@
       <c r="A9" t="s">
         <v>883</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" t="s">
         <v>1276</v>
       </c>
       <c r="C9" t="s">
@@ -24684,7 +30928,7 @@
       <c r="A16" t="s">
         <v>898</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" t="s">
         <v>1276</v>
       </c>
       <c r="C16" t="s">
@@ -24978,7 +31222,7 @@
       <c r="A23" t="s">
         <v>916</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" t="s">
         <v>1276</v>
       </c>
       <c r="C23" t="s">
@@ -25272,7 +31516,7 @@
       <c r="A30" t="s">
         <v>932</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" t="s">
         <v>1276</v>
       </c>
       <c r="C30" t="s">
@@ -26094,7 +32338,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>1276</v>
       </c>
       <c r="B2" t="s">
@@ -26402,7 +32646,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>1276</v>
       </c>
       <c r="B9" t="s">
@@ -26710,7 +32954,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>1276</v>
       </c>
       <c r="B16" t="s">
@@ -27018,7 +33262,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>1276</v>
       </c>
       <c r="B23" t="s">
@@ -27326,7 +33570,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>1276</v>
       </c>
       <c r="B30" t="s">
@@ -28138,7 +34382,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>1276</v>
       </c>
       <c r="B2" t="s">
@@ -28332,7 +34576,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>1276</v>
       </c>
       <c r="B9" t="s">
@@ -28520,7 +34764,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>1276</v>
       </c>
       <c r="B16" t="s">
@@ -28705,7 +34949,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>1276</v>
       </c>
       <c r="B23" t="s">
@@ -28896,7 +35140,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>1276</v>
       </c>
       <c r="B30" t="s">
@@ -29677,7 +35921,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>1276</v>
       </c>
       <c r="B2" t="s">
@@ -29934,7 +36178,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>1276</v>
       </c>
       <c r="B9" t="s">
@@ -30194,7 +36438,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>1276</v>
       </c>
       <c r="B16" t="s">
@@ -30442,7 +36686,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>1276</v>
       </c>
       <c r="B23" t="s">
@@ -30684,7 +36928,7 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>1276</v>
       </c>
       <c r="B30" t="s">
@@ -31505,7 +37749,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>1276</v>
       </c>
       <c r="B2" t="s">
@@ -31771,7 +38015,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>1276</v>
       </c>
       <c r="B9" t="s">
@@ -32037,7 +38281,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>1276</v>
       </c>
       <c r="B16" t="s">
@@ -32303,7 +38547,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>1276</v>
       </c>
       <c r="B23" t="s">
@@ -32569,7 +38813,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>1276</v>
       </c>
       <c r="B30" t="s">
@@ -33052,7 +39296,7 @@
       <c r="A2" t="s">
         <v>865</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" t="s">
         <v>1276</v>
       </c>
       <c r="C2" t="s">
@@ -33346,7 +39590,7 @@
       <c r="A9" t="s">
         <v>883</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" t="s">
         <v>1276</v>
       </c>
       <c r="C9" t="s">
@@ -33640,7 +39884,7 @@
       <c r="A16" t="s">
         <v>898</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" t="s">
         <v>1276</v>
       </c>
       <c r="C16" t="s">
@@ -33934,7 +40178,7 @@
       <c r="A23" t="s">
         <v>916</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" t="s">
         <v>1276</v>
       </c>
       <c r="C23" t="s">
@@ -34228,7 +40472,7 @@
       <c r="A30" t="s">
         <v>932</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" t="s">
         <v>1276</v>
       </c>
       <c r="C30" t="s">
@@ -36261,8 +42505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB8F8DE5-516E-49A5-BD49-D16D2302A151}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36332,7 +42576,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>1276</v>
       </c>
       <c r="B2" t="s">
@@ -36682,7 +42926,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>1276</v>
       </c>
       <c r="B9" t="s">
@@ -37032,7 +43276,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>1276</v>
       </c>
       <c r="B16" t="s">
@@ -37382,7 +43626,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>1276</v>
       </c>
       <c r="B23" t="s">
@@ -37732,7 +43976,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>1276</v>
       </c>
       <c r="B30" t="s">
@@ -38340,8 +44584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99AA1CB-92EF-45D4-B6C5-83D142BC8DDF}">
   <dimension ref="A1:AA121"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+    <sheetView topLeftCell="G47" workbookViewId="0">
+      <selection activeCell="V75" sqref="V75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38387,7 +44631,7 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>1276</v>
       </c>
       <c r="B2" t="s">
@@ -38657,7 +44901,7 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>1276</v>
       </c>
       <c r="B9" t="s">
@@ -38900,7 +45144,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>1276</v>
       </c>
       <c r="B16" t="s">
@@ -39124,7 +45368,7 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>1276</v>
       </c>
       <c r="B23" t="s">
@@ -39344,7 +45588,7 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>1276</v>
       </c>
       <c r="B30" t="s">
@@ -40417,8 +46661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87B8CF6-4471-4862-9EF7-9F3B3E267493}">
   <dimension ref="A1:AB109"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+    <sheetView topLeftCell="J40" workbookViewId="0">
+      <selection activeCell="S74" sqref="S74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -40470,7 +46714,7 @@
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>1276</v>
       </c>
       <c r="B2" t="s">
@@ -40701,7 +46945,7 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>1276</v>
       </c>
       <c r="B9" t="s">
@@ -40953,7 +47197,7 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>1276</v>
       </c>
       <c r="B16" t="s">
@@ -41210,7 +47454,7 @@
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>1276</v>
       </c>
       <c r="B23" t="s">
@@ -41494,7 +47738,7 @@
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>1276</v>
       </c>
       <c r="B30" t="s">
@@ -42708,8 +48952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA4AC1C-9816-4F08-9077-10844809BB1B}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A39"/>
+    <sheetView tabSelected="1" topLeftCell="L37" workbookViewId="0">
+      <selection activeCell="W74" sqref="W74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -42756,7 +49000,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>1276</v>
       </c>
       <c r="B2" t="s">
@@ -42971,7 +49215,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>1276</v>
       </c>
       <c r="B9" t="s">
@@ -43205,7 +49449,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>1276</v>
       </c>
       <c r="B16" t="s">
@@ -43437,7 +49681,7 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>1276</v>
       </c>
       <c r="B23" t="s">
@@ -43704,7 +49948,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>1276</v>
       </c>
       <c r="B30" t="s">
@@ -44938,7 +51182,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" t="s">
         <v>1276</v>
       </c>
       <c r="B2" t="s">
@@ -45141,7 +51385,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" t="s">
         <v>1276</v>
       </c>
       <c r="B9" t="s">
@@ -45344,7 +51588,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>1276</v>
       </c>
       <c r="B16" t="s">
@@ -45547,7 +51791,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>1276</v>
       </c>
       <c r="B23" t="s">
@@ -45750,7 +51994,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>1276</v>
       </c>
       <c r="B30" t="s">
